--- a/Meta/user-story/user-story.xlsx
+++ b/Meta/user-story/user-story.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theco\Desktop\Programozas\softtech\philosophers\Meta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theco\Desktop\Programozas\softtech\philosophers\Meta\user-story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97691BC4-BD00-4DA0-A44A-17E982B09E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C56012-B4EB-41DB-9276-C92E441E02C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{09B0EB9F-9401-4118-87C8-BE93AB0AE713}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="108">
   <si>
     <t>AS A … I WANT TO …</t>
   </si>
@@ -114,6 +114,252 @@
   </si>
   <si>
     <t>THEN: Elindul a játék a mentett pozicióban</t>
+  </si>
+  <si>
+    <t>Kilépés</t>
+  </si>
+  <si>
+    <t>I WANT TO: Kilépni a játékból</t>
+  </si>
+  <si>
+    <t>GIVEN: -</t>
+  </si>
+  <si>
+    <t>WHEN: A kilépés gombra kattintok</t>
+  </si>
+  <si>
+    <t>THEN: A játék lépjen ki</t>
+  </si>
+  <si>
+    <t>GIVEN: A főmenüben vagyok</t>
+  </si>
+  <si>
+    <t>GIVEN: A Játék folyamatban van</t>
+  </si>
+  <si>
+    <t>THEN: A játék engedjen menteni vagy kilépni (figyelmeztetéssel)</t>
+  </si>
+  <si>
+    <t>Mező kijelölése</t>
+  </si>
+  <si>
+    <t>I WANT TO: Kijelölni egy mezőt</t>
+  </si>
+  <si>
+    <t>WHEN: Rákattintok egy mezőre</t>
+  </si>
+  <si>
+    <t>THEN: Jelenjen meg egy lebegő ablak a mező tulajdonságaival</t>
+  </si>
+  <si>
+    <t>Innentől GIVEN: A játék folyamatban van</t>
+  </si>
+  <si>
+    <t>I WANT TO: Fejleszteni egy zóna mezőt</t>
+  </si>
+  <si>
+    <t>WHEN: Egy zóna mezőhoz tartozó lebegő ablakon a 'fejlesztés' gombra nyomok</t>
+  </si>
+  <si>
+    <t>THEN: Nőjjön a lakóhelyek/munkahelyek száma és változzon meg vizuálisan a mező.</t>
+  </si>
+  <si>
+    <t>I WANT TO: Tüzoltóságot küldeni</t>
+  </si>
+  <si>
+    <t>GIVEN: Van rá pénzem (?), rákattintottam egy zóna mezőre</t>
+  </si>
+  <si>
+    <t>Adósságba lehet e menni</t>
+  </si>
+  <si>
+    <t>Akár lehetne egy nagy lebegő gomb a tűz esetén a mező fölött és arra kattintva instant kiküldhetjük a tűzoltóságot</t>
+  </si>
+  <si>
+    <t>WHEN: A tűzoltóság mezőhöz tartozó lebegő ablakon a 'tűzoltóság küldése' gombra kattintottam</t>
+  </si>
+  <si>
+    <t>GIVEN: Van a pályán túzeset, rákattintottam egy tűzoltóság mezőre (?), az aktuális tűzoltóságon éppen van tűzoltóautó (tűzoltóságonként 1 db)</t>
+  </si>
+  <si>
+    <t>THEN: A tűzoltóautó induljon el a mezőröl a tűzesetre és oltsa azt el</t>
+  </si>
+  <si>
+    <t>Eszköz használata</t>
+  </si>
+  <si>
+    <t>I WANT TO: Kiválasztani egy eszközt</t>
+  </si>
+  <si>
+    <t>GIVEN: ?</t>
+  </si>
+  <si>
+    <t>WHEN: A megfelelő eszköz ikonjára kattintok</t>
+  </si>
+  <si>
+    <t>THEN: A kattintott eszköz kijelölődik és tudom használni (akár a kurzor is megváltozhat)</t>
+  </si>
+  <si>
+    <t>I WANT TO: Használni a Katasztrófa okozó eszközt</t>
+  </si>
+  <si>
+    <t>GIVEN: Az eszköz ki van választva</t>
+  </si>
+  <si>
+    <t>WHEN: Az eszközzel a pályára kattintok</t>
+  </si>
+  <si>
+    <t>THEN: Kövezkezzen be a katasztrófa (Melyik?)</t>
+  </si>
+  <si>
+    <t>Mi gátolhatja az eszköz használtát?</t>
+  </si>
+  <si>
+    <t>I WANT TO: Használni a Zóna kijelölő eszközt</t>
+  </si>
+  <si>
+    <t>WHEN: Az eszközzel egy mezőre kattintok vagy katintással és húzással több mezőt kijelölök</t>
+  </si>
+  <si>
+    <t>THEN: A kijelölt mezők minősüljenek át Zóna mezővé, és vonja le a költséget az egyenlegemről</t>
+  </si>
+  <si>
+    <t>GIVEN: Az eszköz ki van választva, ?</t>
+  </si>
+  <si>
+    <t>Konfliktusos bomtásról adhatnánk értesítést</t>
+  </si>
+  <si>
+    <t>I WANT TO: Használni a bontás eszközt</t>
+  </si>
+  <si>
+    <t>WHEN: Az eszközzel egy mezőre kattintok amin van valamilyen épület</t>
+  </si>
+  <si>
+    <t>THEN: A kijelölt mezőről visszaminősül általános mezővé (konfliktusos bontás esetén (nem üres zóna mező vagy épület bontása esetén) figyelmeztetés és először járjon elégedettlenség növekedéssel a mezőn lakok/dolgozóknak, többedszerre pedig pénz levonással)</t>
+  </si>
+  <si>
+    <t>I WANT TO: Használni a építkezés eszközt</t>
+  </si>
+  <si>
+    <t>THEN: Jelen meg egy lebegő ablak a lehetséges építményekkel és áraikkal</t>
+  </si>
+  <si>
+    <t>Építeni</t>
+  </si>
+  <si>
+    <t>I WANT TO: Használni a építkezés eszközt hogy építsek egy Erdőt</t>
+  </si>
+  <si>
+    <t>GIVEN: Az eszköz ki van választva és az erdőt válaszottam</t>
+  </si>
+  <si>
+    <t>WHEN: Az építkezés ikonjára kattintottam</t>
+  </si>
+  <si>
+    <t>WHEN: Rákattintok egy mezőre ahol nincs épület (?)</t>
+  </si>
+  <si>
+    <t>Konfliktusos építés?</t>
+  </si>
+  <si>
+    <t>THEN: Jelen épüljön egy erdő a mezőre</t>
+  </si>
+  <si>
+    <t>I WANT TO: Használni a építkezés eszközt hogy építsek egy [X]</t>
+  </si>
+  <si>
+    <t>GIVEN: Az eszköz ki van választva és az [X] válaszottam</t>
+  </si>
+  <si>
+    <t>Átgondolni hogy ez jó e az összes épületre</t>
+  </si>
+  <si>
+    <t>Idő manipulálása</t>
+  </si>
+  <si>
+    <t>GIVEN: Az idő nincs gyorsra állítva</t>
+  </si>
+  <si>
+    <t>WHEN: Rákattintok az idő gyorsítása gombra</t>
+  </si>
+  <si>
+    <t>I WANT TO: Gyorsítani az időt</t>
+  </si>
+  <si>
+    <t>THEN: Kezdjen el gyorsabban telni az idő</t>
+  </si>
+  <si>
+    <t>I WANT TO: Lassítani az időt</t>
+  </si>
+  <si>
+    <t>GIVEN: Az idő nincs lassúra állítva</t>
+  </si>
+  <si>
+    <t>WHEN: Rákattintok az idő lassítása gombra</t>
+  </si>
+  <si>
+    <t>THEN: Kezdjen el lassabban telni az idő</t>
+  </si>
+  <si>
+    <t>I WANT TO: Megállítani az időt</t>
+  </si>
+  <si>
+    <t>GIVEN: Az idő nincs megállítva</t>
+  </si>
+  <si>
+    <t>WHEN: Rákattintok az idő megállítása gombra</t>
+  </si>
+  <si>
+    <t>I WANT TO: Újraindítani az időt</t>
+  </si>
+  <si>
+    <t>GIVEN: Az idő megvan állítva</t>
+  </si>
+  <si>
+    <t>WHEN: Rákattintok az idő újraindítása gombra</t>
+  </si>
+  <si>
+    <t>THEN: Álljon meg az idő és az idő megállítása gomb váltson az idő újraindítása gombra</t>
+  </si>
+  <si>
+    <t>THEN: Induljon újra az idő</t>
+  </si>
+  <si>
+    <t>Költségvetés menedzselése</t>
+  </si>
+  <si>
+    <t>I WANT TO: Menedzselni a költségvetést</t>
+  </si>
+  <si>
+    <t>GIVEN: A játék fut</t>
+  </si>
+  <si>
+    <t>WHEN: A költségvetés ikonra kattintok</t>
+  </si>
+  <si>
+    <t>THEN: Megjelenik egy lebegő ablak ahol a költségvetéssel kapcsolatos információk találhatóak</t>
+  </si>
+  <si>
+    <t>I WANT TO: Adókat kivetni</t>
+  </si>
+  <si>
+    <t>GIVEN: A költségvetések oldalon vagyok és beírtam hogy mennyi adót szeretnék</t>
+  </si>
+  <si>
+    <t>WHEN: Az 'adó kiadása' gombra kattintok ?</t>
+  </si>
+  <si>
+    <t>Akár instant változhatna az adó mikor állítjuk az adó mennyisége fieldet</t>
+  </si>
+  <si>
+    <t>THEN: Frissül az adó mennyisége</t>
+  </si>
+  <si>
+    <t>MEGJEGYZÉS A ?-HEZ</t>
+  </si>
+  <si>
+    <t>THEN: Jelen épüljön egy [X] a mezőre és vonja le az épület költségét az egyenlegből</t>
   </si>
 </sst>
 </file>
@@ -166,9 +412,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -484,126 +738,561 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1AC31D-0B42-489E-AE74-3CB6B50B91B5}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
-    <col min="3" max="3" width="71.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C74" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C88" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D59:D61"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>